--- a/Assets/Excel/MapTile.xlsx
+++ b/Assets/Excel/MapTile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView windowWidth="13870" windowHeight="8070"/>
   </bookViews>
   <sheets>
     <sheet name="MapTile" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
     <t>//Remark</t>
   </si>
@@ -52,22 +52,34 @@
     <t>Normal tile</t>
   </si>
   <si>
+    <t>imgIconTile_Soil</t>
+  </si>
+  <si>
     <t>Water</t>
   </si>
   <si>
     <t>Can transmit electricity</t>
   </si>
   <si>
+    <t>imgIconTile_Water</t>
+  </si>
+  <si>
     <t>Grass</t>
   </si>
   <si>
     <t>Fire will burn it</t>
   </si>
   <si>
+    <t>imgIconTile_Grass</t>
+  </si>
+  <si>
     <t>Stone</t>
   </si>
   <si>
     <t>Unit can't pass it if it is not broken</t>
+  </si>
+  <si>
+    <t>imgIconTile_Stone</t>
   </si>
   <si>
     <t>Flower</t>
@@ -77,6 +89,9 @@
 Can heal plant</t>
   </si>
   <si>
+    <t>imgIconTile_Flower</t>
+  </si>
+  <si>
     <t>Magic</t>
   </si>
   <si>
@@ -84,6 +99,9 @@
 ATK+1 when spelling skill that deal magic damage.</t>
   </si>
   <si>
+    <t>imgIconTile_Magic</t>
+  </si>
+  <si>
     <t>Duel</t>
   </si>
   <si>
@@ -91,6 +109,9 @@
 Skill damage will ignore DEF and RES</t>
   </si>
   <si>
+    <t>imgIconTile_Duel</t>
+  </si>
+  <si>
     <t>Guard</t>
   </si>
   <si>
@@ -98,11 +119,17 @@
 Only recover half of movement when turn starts</t>
   </si>
   <si>
+    <t>imgIconTile_Guard</t>
+  </si>
+  <si>
     <t>Stealth</t>
   </si>
   <si>
     <t>ATK-2
 Uneasy to become foes' target.</t>
+  </si>
+  <si>
+    <t>imgIconTile_Stealth</t>
   </si>
 </sst>
 </file>
@@ -1039,7 +1066,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1047,6 +1074,7 @@
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="11.0909090909091" customWidth="1"/>
     <col min="4" max="4" width="42.7272727272727" customWidth="1"/>
+    <col min="5" max="5" width="18.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1088,7 +1116,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1101,117 +1129,144 @@
       <c r="D4" t="s">
         <v>11</v>
       </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="8" ht="28" spans="1:4">
+    <row r="8" ht="28" spans="1:5">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="9" ht="42" spans="1:4">
+    <row r="9" ht="42" spans="1:5">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="10" ht="28" spans="1:4">
+    <row r="10" ht="28" spans="1:5">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="11" ht="42" spans="1:4">
+    <row r="11" ht="42" spans="1:5">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="12" ht="28" spans="1:4">
+    <row r="12" ht="28" spans="1:5">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/MapTile.xlsx
+++ b/Assets/Excel/MapTile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13870" windowHeight="8070"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="MapTile" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,8 @@
     <t>Grass</t>
   </si>
   <si>
-    <t>Fire will burn it</t>
+    <t>Fire will burn it
+ATK of Plant + 1</t>
   </si>
   <si>
     <t>imgIconTile_Grass</t>
@@ -86,7 +87,7 @@
   </si>
   <si>
     <t>Fire will burn it
-Can heal plant</t>
+Can heal Plant</t>
   </si>
   <si>
     <t>imgIconTile_Flower</t>
@@ -745,9 +746,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1066,7 +1070,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1150,7 +1154,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" ht="28" spans="1:5">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1160,7 +1164,7 @@
       <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E6" t="s">
@@ -1194,7 +1198,7 @@
       <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E8" t="s">
@@ -1211,7 +1215,7 @@
       <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E9" t="s">
@@ -1228,7 +1232,7 @@
       <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E10" t="s">
@@ -1245,7 +1249,7 @@
       <c r="C11" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E11" t="s">
@@ -1262,7 +1266,7 @@
       <c r="C12" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E12" t="s">

--- a/Assets/Excel/MapTile.xlsx
+++ b/Assets/Excel/MapTile.xlsx
@@ -9,12 +9,25 @@
   <sheets>
     <sheet name="MapTile" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>//Remark</t>
   </si>
@@ -131,12 +144,21 @@
   </si>
   <si>
     <t>imgIconTile_Stealth</t>
+  </si>
+  <si>
+    <t>Hope</t>
+  </si>
+  <si>
+    <t>Get extra AP when turn starts.</t>
+  </si>
+  <si>
+    <t>imgIconTile_Hope</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -746,12 +768,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1067,10 +1086,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1198,7 +1217,7 @@
       <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E8" t="s">
@@ -1215,7 +1234,7 @@
       <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E9" t="s">
@@ -1232,7 +1251,7 @@
       <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E10" t="s">
@@ -1249,7 +1268,7 @@
       <c r="C11" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E11" t="s">
@@ -1266,11 +1285,28 @@
       <c r="C12" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E12" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/MapTile.xlsx
+++ b/Assets/Excel/MapTile.xlsx
@@ -80,8 +80,8 @@
     <t>Grass</t>
   </si>
   <si>
-    <t>Fire will burn it
-ATK of Plant + 1</t>
+    <t>Fire can burn it
+&lt;sprite="Common" name="ATK"&gt; ATK+1 for &lt;sprite="Target" name="PUnit"&gt; Plant</t>
   </si>
   <si>
     <t>imgIconTile_Grass</t>
@@ -99,8 +99,8 @@
     <t>Flower</t>
   </si>
   <si>
-    <t>Fire will burn it
-Can heal Plant</t>
+    <t>Fire can burn it
+Can heal &lt;sprite="Target" name="PUnit"&gt; Plant</t>
   </si>
   <si>
     <t>imgIconTile_Flower</t>
@@ -109,8 +109,8 @@
     <t>Magic</t>
   </si>
   <si>
-    <t>RES+1;
-ATK+1 when spelling skill that deal magic damage.</t>
+    <t>&lt;sprite="Common" name="RES"&gt; RES+1
+Cost extra &lt;sprite="Common" name="HP"&gt; HP to deal more &lt;sprite="SkillType" name="MDmg"&gt; Magic Damage</t>
   </si>
   <si>
     <t>imgIconTile_Magic</t>
@@ -119,8 +119,8 @@
     <t>Duel</t>
   </si>
   <si>
-    <t>DEF-1 RES-1
-Skill damage will ignore DEF and RES</t>
+    <t>&lt;sprite="Common" name="DEF"&gt; DEF-1 &lt;sprite="Common" name="RES"&gt; RES-1
+Skill cause &lt;sprite="SkillType" name="TDmg"&gt; True Damage that ignores &lt;sprite="Common" name="DEF"&gt; DEF and &lt;sprite="Common" name="RES"&gt; RES</t>
   </si>
   <si>
     <t>imgIconTile_Duel</t>
@@ -130,7 +130,7 @@
   </si>
   <si>
     <t>Reduce 40% damage from others.
-Only recover half of movement when turn starts</t>
+Only recover half of &lt;sprite="Common" name="MOV"&gt; MOV when turn starts</t>
   </si>
   <si>
     <t>imgIconTile_Guard</t>
@@ -139,7 +139,7 @@
     <t>Stealth</t>
   </si>
   <si>
-    <t>ATK-2
+    <t>&lt;sprite="Common" name="ATK"&gt; ATK-2
 Uneasy to become foes' target.</t>
   </si>
   <si>
@@ -149,7 +149,8 @@
     <t>Hope</t>
   </si>
   <si>
-    <t>Get extra AP when turn starts.</t>
+    <t>Get extra &lt;sprite="Common" name="AP"&gt;AP and 1 level fragile
+when turn starts</t>
   </si>
   <si>
     <t>imgIconTile_Hope</t>
@@ -1089,7 +1090,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1173,7 +1174,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="28" spans="1:5">
+    <row r="6" ht="42" spans="1:5">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1207,7 +1208,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" ht="28" spans="1:5">
+    <row r="8" ht="42" spans="1:5">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1224,7 +1225,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" ht="42" spans="1:5">
+    <row r="9" ht="56" spans="1:5">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1241,7 +1242,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" ht="28" spans="1:5">
+    <row r="10" ht="84" spans="1:5">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1292,7 +1293,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" ht="42" spans="1:5">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1302,7 +1303,7 @@
       <c r="C13" t="s">
         <v>37</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E13" t="s">

--- a/Assets/Excel/MapTile.xlsx
+++ b/Assets/Excel/MapTile.xlsx
@@ -119,7 +119,7 @@
     <t>Duel</t>
   </si>
   <si>
-    <t>&lt;sprite="Common" name="DEF"&gt; DEF-1 &lt;sprite="Common" name="RES"&gt; RES-1
+    <t>&lt;sprite="Common" name="DEF"&gt; DEF-1 and &lt;sprite="Common" name="RES"&gt; RES-1
 Skill cause &lt;sprite="SkillType" name="TDmg"&gt; True Damage that ignores &lt;sprite="Common" name="DEF"&gt; DEF and &lt;sprite="Common" name="RES"&gt; RES</t>
   </si>
   <si>
@@ -149,8 +149,7 @@
     <t>Hope</t>
   </si>
   <si>
-    <t>Get extra &lt;sprite="Common" name="AP"&gt;AP and 1 level fragile
-when turn starts</t>
+    <t>Get extra &lt;sprite="Common" name="AP"&gt; AP and 1 level &lt;sprite="BuffS" name="Fragile"&gt; fragile when turn starts</t>
   </si>
   <si>
     <t>imgIconTile_Hope</t>
@@ -1090,7 +1089,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>

--- a/Assets/Excel/MapTile.xlsx
+++ b/Assets/Excel/MapTile.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="62">
   <si>
     <t>//Remark</t>
   </si>
@@ -38,10 +38,16 @@
     <t>tileType</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>desc</t>
+    <t>name_EN</t>
+  </si>
+  <si>
+    <t>name_CN</t>
+  </si>
+  <si>
+    <t>desc_EN</t>
+  </si>
+  <si>
+    <t>desc_CN</t>
   </si>
   <si>
     <t>iconUrl</t>
@@ -62,94 +68,160 @@
     <t>Soil</t>
   </si>
   <si>
+    <t>土</t>
+  </si>
+  <si>
     <t>Normal tile</t>
   </si>
   <si>
+    <t>普通地块</t>
+  </si>
+  <si>
     <t>imgIconTile_Soil</t>
   </si>
   <si>
     <t>Water</t>
   </si>
   <si>
+    <t>水</t>
+  </si>
+  <si>
     <t>Can transmit electricity</t>
   </si>
   <si>
+    <t>可以传导电</t>
+  </si>
+  <si>
     <t>imgIconTile_Water</t>
   </si>
   <si>
     <t>Grass</t>
   </si>
   <si>
-    <t>Fire can burn it
+    <t>草</t>
+  </si>
+  <si>
+    <t>When burnt by fire, apply 2 level &lt;sprite="BuffS" name="Burn"&gt; Burning.
 &lt;sprite="Common" name="ATK"&gt; ATK+1 for &lt;sprite="Target" name="PUnit"&gt; Plant</t>
   </si>
   <si>
+    <t>被火点燃后, 附加2层 &lt;sprite="BuffS" name="Burn"&gt; 灼烧给上面单位。
+ &lt;sprite="Target" name="PUnit"&gt; 植物的&lt;sprite="Common" name="ATK"&gt; 攻击+1</t>
+  </si>
+  <si>
     <t>imgIconTile_Grass</t>
   </si>
   <si>
     <t>Stone</t>
   </si>
   <si>
+    <t>石</t>
+  </si>
+  <si>
     <t>Unit can't pass it if it is not broken</t>
   </si>
   <si>
+    <t>单位不能通过它，除非它被破坏了</t>
+  </si>
+  <si>
     <t>imgIconTile_Stone</t>
   </si>
   <si>
     <t>Flower</t>
   </si>
   <si>
-    <t>Fire can burn it
+    <t>花</t>
+  </si>
+  <si>
+    <t>When burnt by fire, apply 2 level &lt;sprite="BuffS" name="Burn"&gt; Burning.
 Can heal &lt;sprite="Target" name="PUnit"&gt; Plant</t>
   </si>
   <si>
+    <t>被火点燃后, 附加2层 &lt;sprite="BuffS" name="Burn"&gt; 灼烧给上面单位。
+能治疗&lt;sprite="Target" name="PUnit"&gt; 植物。</t>
+  </si>
+  <si>
     <t>imgIconTile_Flower</t>
   </si>
   <si>
     <t>Magic</t>
   </si>
   <si>
+    <t>魔法</t>
+  </si>
+  <si>
     <t>&lt;sprite="Common" name="RES"&gt; RES+1
-Cost extra &lt;sprite="Common" name="HP"&gt; HP to deal more &lt;sprite="SkillType" name="MDmg"&gt; Magic Damage</t>
+Cost extra &lt;sprite="Common" name="HP"&gt; HP to deal extra 50% &lt;sprite="SkillType" name="MDmg"&gt; Magic Damage</t>
+  </si>
+  <si>
+    <t>&lt;sprite="Common" name="RES"&gt; 魔防+1
+消耗额外 &lt;sprite="Common" name="HP"&gt; 生命增加50% &lt;sprite="SkillType" name="MDmg"&gt; 魔法伤害</t>
   </si>
   <si>
     <t>imgIconTile_Magic</t>
   </si>
   <si>
     <t>Duel</t>
+  </si>
+  <si>
+    <t>决斗</t>
   </si>
   <si>
     <t>&lt;sprite="Common" name="DEF"&gt; DEF-1 and &lt;sprite="Common" name="RES"&gt; RES-1
 Skill cause &lt;sprite="SkillType" name="TDmg"&gt; True Damage that ignores &lt;sprite="Common" name="DEF"&gt; DEF and &lt;sprite="Common" name="RES"&gt; RES</t>
   </si>
   <si>
+    <t>&lt;sprite="Common" name="DEF"&gt; 防御-1和 &lt;sprite="Common" name="RES"&gt; 魔防-1
+技能造成 &lt;sprite="SkillType" name="TDmg"&gt; 真实伤害无视 &lt;sprite="Common" name="DEF"&gt; 防御和 &lt;sprite="Common" name="RES"&gt; 魔防</t>
+  </si>
+  <si>
     <t>imgIconTile_Duel</t>
   </si>
   <si>
     <t>Guard</t>
   </si>
   <si>
-    <t>Reduce 40% damage from others.
+    <t>坚守</t>
+  </si>
+  <si>
+    <t>Reduce 50% damage from others.
 Only recover half of &lt;sprite="Common" name="MOV"&gt; MOV when turn starts</t>
   </si>
   <si>
+    <t>减少50%有来源伤害。
+回合开始时只有一半 &lt;sprite="Common" name="MOV"&gt; 移动力。</t>
+  </si>
+  <si>
     <t>imgIconTile_Guard</t>
   </si>
   <si>
     <t>Stealth</t>
+  </si>
+  <si>
+    <t>隐匿</t>
   </si>
   <si>
     <t>&lt;sprite="Common" name="ATK"&gt; ATK-2
 Uneasy to become foes' target.</t>
   </si>
   <si>
+    <t>&lt;sprite="Common" name="ATK"&gt; 攻击-2
+不容易成为敌人的目标</t>
+  </si>
+  <si>
     <t>imgIconTile_Stealth</t>
   </si>
   <si>
     <t>Hope</t>
   </si>
   <si>
+    <t>希望</t>
+  </si>
+  <si>
     <t>Get extra &lt;sprite="Common" name="AP"&gt; AP and 1 level &lt;sprite="BuffS" name="Fragile"&gt; fragile when turn starts</t>
+  </si>
+  <si>
+    <t>回合开始时获得额外1点 &lt;sprite="Common" name="AP"&gt; 行动力和1层 &lt;sprite="BuffS" name="Fragile"&gt; 脆弱</t>
   </si>
   <si>
     <t>imgIconTile_Hope</t>
@@ -1086,18 +1158,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="11.0909090909091" customWidth="1"/>
-    <col min="4" max="4" width="42.7272727272727" customWidth="1"/>
-    <col min="5" max="5" width="18.2727272727273" customWidth="1"/>
+    <col min="3" max="4" width="11.0909090909091" customWidth="1"/>
+    <col min="5" max="5" width="42.7272727272727" customWidth="1"/>
+    <col min="6" max="6" width="44.3636363636364" customWidth="1"/>
+    <col min="7" max="7" width="18.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1105,7 +1178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1121,192 +1194,264 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="6" ht="42" spans="1:5">
+    <row r="6" ht="56" spans="1:7">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="8" ht="42" spans="1:5">
+    <row r="8" ht="56" spans="1:7">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="9" ht="56" spans="1:5">
+    <row r="9" ht="56" spans="1:7">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>27</v>
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="10" ht="84" spans="1:5">
+    <row r="10" ht="84" spans="1:7">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" t="s">
-        <v>30</v>
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="11" ht="42" spans="1:5">
+    <row r="11" ht="42" spans="1:7">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" t="s">
-        <v>33</v>
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="12" ht="28" spans="1:5">
+    <row r="12" ht="28" spans="1:7">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" t="s">
-        <v>36</v>
+        <v>52</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="13" ht="42" spans="1:5">
+    <row r="13" ht="42" spans="1:7">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" t="s">
-        <v>39</v>
+        <v>57</v>
+      </c>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/MapTile.xlsx
+++ b/Assets/Excel/MapTile.xlsx
@@ -101,11 +101,11 @@
     <t>草</t>
   </si>
   <si>
-    <t>When burnt by fire, apply 2 level &lt;sprite="BuffS" name="Burn"&gt; Burning.
+    <t>When burnt by fire, fire will expand and apply 2 level &lt;sprite="BuffS" name="Burn"&gt; Burning.
 &lt;sprite="Common" name="ATK"&gt; ATK+1 for &lt;sprite="Target" name="PUnit"&gt; Plant</t>
   </si>
   <si>
-    <t>被火点燃后, 附加2层 &lt;sprite="BuffS" name="Burn"&gt; 灼烧给上面单位。
+    <t>被火点燃后, 火势会蔓延并附加2层 &lt;sprite="BuffS" name="Burn"&gt; 灼烧给上面单位。
  &lt;sprite="Target" name="PUnit"&gt; 植物的&lt;sprite="Common" name="ATK"&gt; 攻击+1</t>
   </si>
   <si>
@@ -133,11 +133,11 @@
     <t>花</t>
   </si>
   <si>
-    <t>When burnt by fire, apply 2 level &lt;sprite="BuffS" name="Burn"&gt; Burning.
+    <t>When burnt by fire, fire will expand and apply 2 level &lt;sprite="BuffS" name="Burn"&gt; Burning.
 Can heal &lt;sprite="Target" name="PUnit"&gt; Plant</t>
   </si>
   <si>
-    <t>被火点燃后, 附加2层 &lt;sprite="BuffS" name="Burn"&gt; 灼烧给上面单位。
+    <t>被火点燃后, 火势会蔓延并附加2层 &lt;sprite="BuffS" name="Burn"&gt; 灼烧给上面单位。
 能治疗&lt;sprite="Target" name="PUnit"&gt; 植物。</t>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -1270,7 +1270,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" ht="56" spans="1:7">
+    <row r="6" ht="70" spans="1:7">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" ht="56" spans="1:7">
+    <row r="8" ht="70" spans="1:7">
       <c r="A8">
         <v>5</v>
       </c>

--- a/Assets/Excel/MapTile.xlsx
+++ b/Assets/Excel/MapTile.xlsx
@@ -1161,7 +1161,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
